--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Boc.xlsx
@@ -88,10 +88,10 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.2861555</v>
+        <v>2.586115</v>
       </c>
       <c r="N2">
-        <v>4.572311</v>
+        <v>5.17223</v>
       </c>
       <c r="O2">
-        <v>0.1031960088701604</v>
+        <v>0.1424410420966074</v>
       </c>
       <c r="P2">
-        <v>0.07798749924269259</v>
+        <v>0.1066214632654476</v>
       </c>
       <c r="Q2">
-        <v>0.03554438366216667</v>
+        <v>0.04020805398166667</v>
       </c>
       <c r="R2">
-        <v>0.213266301973</v>
+        <v>0.24124832389</v>
       </c>
       <c r="S2">
-        <v>0.1031960088701604</v>
+        <v>0.1424410420966074</v>
       </c>
       <c r="T2">
-        <v>0.07798749924269259</v>
+        <v>0.1066214632654476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>36.483593</v>
       </c>
       <c r="O3">
-        <v>0.5489508750743805</v>
+        <v>0.6698285531706168</v>
       </c>
       <c r="P3">
-        <v>0.6222814199336407</v>
+        <v>0.7520806442948283</v>
       </c>
       <c r="Q3">
         <v>0.1890782475887778</v>
@@ -638,10 +638,10 @@
         <v>1.701704228299</v>
       </c>
       <c r="S3">
-        <v>0.5489508750743805</v>
+        <v>0.6698285531706168</v>
       </c>
       <c r="T3">
-        <v>0.6222814199336407</v>
+        <v>0.7520806442948283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.545655500000001</v>
+        <v>0.03546733333333333</v>
       </c>
       <c r="N4">
-        <v>11.091311</v>
+        <v>0.106402</v>
       </c>
       <c r="O4">
-        <v>0.2503283412562506</v>
+        <v>0.001953510930638328</v>
       </c>
       <c r="P4">
-        <v>0.1891786469059012</v>
+        <v>0.002193393745902667</v>
       </c>
       <c r="Q4">
-        <v>0.08622200316216669</v>
+        <v>0.0005514342762222221</v>
       </c>
       <c r="R4">
-        <v>0.5173320189730001</v>
+        <v>0.004962908485999999</v>
       </c>
       <c r="S4">
-        <v>0.2503283412562506</v>
+        <v>0.001953510930638328</v>
       </c>
       <c r="T4">
-        <v>0.1891786469059012</v>
+        <v>0.002193393745902667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.112112</v>
+        <v>3.3707325</v>
       </c>
       <c r="N5">
-        <v>6.336335999999999</v>
+        <v>6.741465</v>
       </c>
       <c r="O5">
-        <v>0.09533976524640267</v>
+        <v>0.1856571149886616</v>
       </c>
       <c r="P5">
-        <v>0.1080755440741992</v>
+        <v>0.1389700115526186</v>
       </c>
       <c r="Q5">
-        <v>0.03283841333866667</v>
+        <v>0.0524070253325</v>
       </c>
       <c r="R5">
-        <v>0.295545720048</v>
+        <v>0.314442151995</v>
       </c>
       <c r="S5">
-        <v>0.09533976524640267</v>
+        <v>0.1856571149886616</v>
       </c>
       <c r="T5">
-        <v>0.1080755440741992</v>
+        <v>0.1389700115526186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04840566666666667</v>
+        <v>0.002174666666666667</v>
       </c>
       <c r="N6">
-        <v>0.145217</v>
+        <v>0.006524</v>
       </c>
       <c r="O6">
-        <v>0.002185009552805732</v>
+        <v>0.0001197788134761043</v>
       </c>
       <c r="P6">
-        <v>0.002476889843566216</v>
+        <v>0.0001344871412028815</v>
       </c>
       <c r="Q6">
-        <v>0.0007525951701111113</v>
+        <v>3.381099244444445E-05</v>
       </c>
       <c r="R6">
-        <v>0.006773356531000001</v>
+        <v>0.000304298932</v>
       </c>
       <c r="S6">
-        <v>0.002185009552805732</v>
+        <v>0.0001197788134761043</v>
       </c>
       <c r="T6">
-        <v>0.002476889843566216</v>
+        <v>0.0001344871412028815</v>
       </c>
     </row>
   </sheetData>
